--- a/MCR-EMApp/Template.xlsx
+++ b/MCR-EMApp/Template.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="All_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Energy" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>S.No.</t>
   </si>
@@ -181,6 +181,66 @@
   </si>
   <si>
     <t>APE-20119</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>GT-1</t>
+  </si>
+  <si>
+    <t>GT-2</t>
+  </si>
+  <si>
+    <t>GT-3</t>
+  </si>
+  <si>
+    <t>GT-4</t>
+  </si>
+  <si>
+    <t>GT-5</t>
+  </si>
+  <si>
+    <t>GT-6</t>
+  </si>
+  <si>
+    <t>ST-1</t>
+  </si>
+  <si>
+    <t>ST-2</t>
+  </si>
+  <si>
+    <t>ST-3</t>
+  </si>
+  <si>
+    <t>ST-4</t>
+  </si>
+  <si>
+    <t>ST-5</t>
+  </si>
+  <si>
+    <t>ST-6</t>
+  </si>
+  <si>
+    <t>PTR</t>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>KWH</t>
+  </si>
+  <si>
+    <t>Dr.NTTPS Unit 1-6 Energy Meters Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch Yard- 220 KV </t>
   </si>
 </sst>
 </file>
@@ -290,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -397,11 +457,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -470,6 +570,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,17 +888,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
@@ -801,253 +920,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="29"/>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A2" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="31"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="19" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="18" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="16" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="17"/>
-    </row>
-    <row r="2" spans="1:25" ht="45">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="2" t="s">
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="1:25" ht="45">
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.75">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="11">
-        <v>15461840</v>
-      </c>
-      <c r="D3" s="9">
-        <v>2000</v>
-      </c>
-      <c r="E3" s="9">
-        <v>800</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9">
-        <f>G3*D3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9">
-        <f>I3*D3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9">
-        <f>K3*D3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9">
-        <f>M3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9">
-        <f>O3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9">
-        <f>Q3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9">
-        <f>S3*0.0001</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9">
-        <f>U3*0.0001</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9">
-        <f>W3*0.01</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="12">
-        <v>12287959</v>
-      </c>
-      <c r="D4" s="9">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="9">
-        <v>800</v>
-      </c>
-      <c r="F4" s="9">
-        <v>2</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9">
-        <f t="shared" ref="H4:H13" si="0">G4*D4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9">
-        <f t="shared" ref="J4:J13" si="1">I4*D4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9">
-        <f t="shared" ref="L4:L13" si="2">K4*D4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9">
-        <f t="shared" ref="N4:N13" si="3">M4*E4</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9">
-        <f t="shared" ref="P4:P13" si="4">O4*E4</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9">
-        <f t="shared" ref="R4:R13" si="5">Q4*E4</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9">
-        <f t="shared" ref="T4:T28" si="6">S4*0.0001</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9">
-        <f t="shared" ref="V4:V28" si="7">U4*0.0001</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9">
-        <f t="shared" ref="X4:X28" si="8">W4*0.01</f>
-        <v>0</v>
-      </c>
+      <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="15.75">
       <c r="A5" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="12">
-        <v>15461851</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="11">
+        <v>15461840</v>
       </c>
       <c r="D5" s="9">
         <v>2000</v>
@@ -1056,63 +1101,63 @@
         <v>800</v>
       </c>
       <c r="F5" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9">
-        <f t="shared" si="0"/>
+        <f>G5*D5</f>
         <v>0</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9">
-        <f t="shared" si="1"/>
+        <f>I5*D5</f>
         <v>0</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9">
-        <f t="shared" si="2"/>
+        <f>K5*D5</f>
         <v>0</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9">
-        <f t="shared" si="3"/>
+        <f>M5*E5</f>
         <v>0</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="9">
-        <f t="shared" si="4"/>
+        <f>O5*E5</f>
         <v>0</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9">
-        <f t="shared" si="5"/>
+        <f>Q5*E5</f>
         <v>0</v>
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9">
-        <f t="shared" si="6"/>
+        <f>S5*0.0001</f>
         <v>0</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="9">
-        <f t="shared" si="7"/>
+        <f>U5*0.0001</f>
         <v>0</v>
       </c>
       <c r="W5" s="9"/>
       <c r="X5" s="9">
-        <f t="shared" si="8"/>
+        <f>W5*0.01</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75">
       <c r="A6" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="12">
-        <v>12287957</v>
+        <v>12287959</v>
       </c>
       <c r="D6" s="9">
         <v>2000</v>
@@ -1121,63 +1166,63 @@
         <v>800</v>
       </c>
       <c r="F6" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H6:H15" si="0">G6*D6</f>
         <v>0</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J6:J15" si="1">I6*D6</f>
         <v>0</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L6:L15" si="2">K6*D6</f>
         <v>0</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N6:N15" si="3">M6*E6</f>
         <v>0</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P6:P15" si="4">O6*E6</f>
         <v>0</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="R6:R15" si="5">Q6*E6</f>
         <v>0</v>
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="T6:T30" si="6">S6*0.0001</f>
         <v>0</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="V6:V30" si="7">U6*0.0001</f>
         <v>0</v>
       </c>
       <c r="W6" s="9"/>
       <c r="X6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="X6:X30" si="8">W6*0.01</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75">
       <c r="A7" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="12">
-        <v>15461843</v>
+        <v>15461851</v>
       </c>
       <c r="D7" s="9">
         <v>2000</v>
@@ -1186,7 +1231,7 @@
         <v>800</v>
       </c>
       <c r="F7" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9">
@@ -1236,13 +1281,13 @@
     </row>
     <row r="8" spans="1:25" ht="15.75">
       <c r="A8" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="12">
-        <v>12287962</v>
+        <v>12287957</v>
       </c>
       <c r="D8" s="9">
         <v>2000</v>
@@ -1251,7 +1296,7 @@
         <v>800</v>
       </c>
       <c r="F8" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9">
@@ -1301,13 +1346,13 @@
     </row>
     <row r="9" spans="1:25" ht="15.75">
       <c r="A9" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="12">
-        <v>15461844</v>
+        <v>15461843</v>
       </c>
       <c r="D9" s="9">
         <v>2000</v>
@@ -1316,7 +1361,7 @@
         <v>800</v>
       </c>
       <c r="F9" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9">
@@ -1366,13 +1411,13 @@
     </row>
     <row r="10" spans="1:25" ht="15.75">
       <c r="A10" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="12">
-        <v>12287966</v>
+        <v>12287962</v>
       </c>
       <c r="D10" s="9">
         <v>2000</v>
@@ -1381,7 +1426,7 @@
         <v>800</v>
       </c>
       <c r="F10" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9">
@@ -1431,13 +1476,13 @@
     </row>
     <row r="11" spans="1:25" ht="15.75">
       <c r="A11" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="12">
-        <v>15461842</v>
+        <v>15461844</v>
       </c>
       <c r="D11" s="9">
         <v>2000</v>
@@ -1446,7 +1491,7 @@
         <v>800</v>
       </c>
       <c r="F11" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9">
@@ -1496,13 +1541,13 @@
     </row>
     <row r="12" spans="1:25" ht="15.75">
       <c r="A12" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="12">
-        <v>12287958</v>
+        <v>12287966</v>
       </c>
       <c r="D12" s="9">
         <v>2000</v>
@@ -1511,7 +1556,7 @@
         <v>800</v>
       </c>
       <c r="F12" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9">
@@ -1561,13 +1606,13 @@
     </row>
     <row r="13" spans="1:25" ht="15.75">
       <c r="A13" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12">
-        <v>15461841</v>
+        <v>15461842</v>
       </c>
       <c r="D13" s="9">
         <v>2000</v>
@@ -1576,7 +1621,7 @@
         <v>800</v>
       </c>
       <c r="F13" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9">
@@ -1625,14 +1670,14 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75">
-      <c r="A14" s="10">
-        <v>12</v>
+      <c r="A14" s="9">
+        <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="12">
-        <v>12287956</v>
+        <v>12287958</v>
       </c>
       <c r="D14" s="9">
         <v>2000</v>
@@ -1641,36 +1686,36 @@
         <v>800</v>
       </c>
       <c r="F14" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9">
-        <f t="shared" ref="H14:H28" si="9">G14*D14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9">
-        <f t="shared" ref="J14:J28" si="10">I14*D14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9">
-        <f t="shared" ref="L14:L28" si="11">K14*D14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9">
-        <f t="shared" ref="N14:N28" si="12">M14*E14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="9">
-        <f t="shared" ref="P14:P28" si="13">O14*E14</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="9">
-        <f t="shared" ref="R14:R28" si="14">Q14*E14</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S14" s="9"/>
@@ -1690,52 +1735,52 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75">
-      <c r="A15" s="10">
-        <v>13</v>
+      <c r="A15" s="9">
+        <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="12">
-        <v>15461891</v>
+        <v>15461841</v>
       </c>
       <c r="D15" s="9">
         <v>2000</v>
       </c>
       <c r="E15" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F15" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S15" s="9"/>
@@ -1756,13 +1801,13 @@
     </row>
     <row r="16" spans="1:25" ht="15.75">
       <c r="A16" s="10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="12">
-        <v>12287960</v>
+        <v>12287956</v>
       </c>
       <c r="D16" s="9">
         <v>2000</v>
@@ -1771,36 +1816,36 @@
         <v>800</v>
       </c>
       <c r="F16" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H16:H30" si="9">G16*D16</f>
         <v>0</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J16:J30" si="10">I16*D16</f>
         <v>0</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="L16:L30" si="11">K16*D16</f>
         <v>0</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="N16:N30" si="12">M16*E16</f>
         <v>0</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="P16:P30" si="13">O16*E16</f>
         <v>0</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="R16:R30" si="14">Q16*E16</f>
         <v>0</v>
       </c>
       <c r="S16" s="9"/>
@@ -1821,13 +1866,13 @@
     </row>
     <row r="17" spans="1:24" ht="15.75">
       <c r="A17" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="12">
-        <v>15461892</v>
+        <v>15461891</v>
       </c>
       <c r="D17" s="9">
         <v>2000</v>
@@ -1836,7 +1881,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9">
@@ -1886,13 +1931,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75">
       <c r="A18" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="12">
-        <v>12287961</v>
+        <v>12287960</v>
       </c>
       <c r="D18" s="9">
         <v>2000</v>
@@ -1901,7 +1946,7 @@
         <v>800</v>
       </c>
       <c r="F18" s="9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9">
@@ -1951,13 +1996,13 @@
     </row>
     <row r="19" spans="1:24" ht="15.75">
       <c r="A19" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="12">
-        <v>15461895</v>
+        <v>15461892</v>
       </c>
       <c r="D19" s="9">
         <v>2000</v>
@@ -1966,7 +2011,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9">
@@ -2016,13 +2061,13 @@
     </row>
     <row r="20" spans="1:24" ht="15.75">
       <c r="A20" s="10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="12">
-        <v>12287964</v>
+        <v>12287961</v>
       </c>
       <c r="D20" s="9">
         <v>2000</v>
@@ -2031,7 +2076,7 @@
         <v>800</v>
       </c>
       <c r="F20" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9">
@@ -2081,13 +2126,13 @@
     </row>
     <row r="21" spans="1:24" ht="15.75">
       <c r="A21" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="12">
-        <v>15461894</v>
+        <v>15461895</v>
       </c>
       <c r="D21" s="9">
         <v>2000</v>
@@ -2096,7 +2141,7 @@
         <v>100</v>
       </c>
       <c r="F21" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9">
@@ -2146,13 +2191,13 @@
     </row>
     <row r="22" spans="1:24" ht="15.75">
       <c r="A22" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="12">
-        <v>12287965</v>
+        <v>12287964</v>
       </c>
       <c r="D22" s="9">
         <v>2000</v>
@@ -2161,7 +2206,7 @@
         <v>800</v>
       </c>
       <c r="F22" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9">
@@ -2211,13 +2256,13 @@
     </row>
     <row r="23" spans="1:24" ht="15.75">
       <c r="A23" s="10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="12">
-        <v>15461893</v>
+        <v>15461894</v>
       </c>
       <c r="D23" s="9">
         <v>2000</v>
@@ -2226,7 +2271,7 @@
         <v>100</v>
       </c>
       <c r="F23" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9">
@@ -2276,13 +2321,13 @@
     </row>
     <row r="24" spans="1:24" ht="15.75">
       <c r="A24" s="10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="12">
-        <v>12287963</v>
+        <v>12287965</v>
       </c>
       <c r="D24" s="9">
         <v>2000</v>
@@ -2291,7 +2336,7 @@
         <v>800</v>
       </c>
       <c r="F24" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9">
@@ -2341,22 +2386,22 @@
     </row>
     <row r="25" spans="1:24" ht="15.75">
       <c r="A25" s="10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="12">
-        <v>12287976</v>
+        <v>15461893</v>
       </c>
       <c r="D25" s="9">
         <v>2000</v>
       </c>
       <c r="E25" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F25" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9">
@@ -2406,13 +2451,13 @@
     </row>
     <row r="26" spans="1:24" ht="15.75">
       <c r="A26" s="10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="12">
-        <v>12287967</v>
+        <v>12287963</v>
       </c>
       <c r="D26" s="9">
         <v>2000</v>
@@ -2421,7 +2466,7 @@
         <v>800</v>
       </c>
       <c r="F26" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9">
@@ -2469,80 +2514,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="15" customFormat="1" ht="15.75">
-      <c r="A27" s="13">
-        <v>25</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="13">
+    <row r="27" spans="1:24" ht="15.75">
+      <c r="A27" s="10">
+        <v>23</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="12">
+        <v>12287976</v>
+      </c>
+      <c r="D27" s="9">
         <v>2000</v>
       </c>
-      <c r="E27" s="13">
-        <v>800</v>
-      </c>
-      <c r="F27" s="13">
-        <v>25</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13">
+      <c r="E27" s="9">
+        <v>200</v>
+      </c>
+      <c r="F27" s="9">
+        <v>23</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13">
+      <c r="K27" s="9"/>
+      <c r="L27" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13">
+      <c r="M27" s="9"/>
+      <c r="N27" s="9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13">
+      <c r="O27" s="9"/>
+      <c r="P27" s="9">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13">
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13">
+      <c r="S27" s="9"/>
+      <c r="T27" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13">
+      <c r="U27" s="9"/>
+      <c r="V27" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13">
+      <c r="W27" s="9"/>
+      <c r="X27" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75">
       <c r="A28" s="10">
-        <v>26</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>53</v>
+        <v>24</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C28" s="12">
-        <v>12287955</v>
+        <v>12287967</v>
       </c>
       <c r="D28" s="9">
         <v>2000</v>
@@ -2551,7 +2596,7 @@
         <v>800</v>
       </c>
       <c r="F28" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9">
@@ -2599,18 +2644,224 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:24" s="15" customFormat="1" ht="15.75">
+      <c r="A29" s="13">
+        <v>25</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="13">
+        <v>800</v>
+      </c>
+      <c r="F29" s="13">
+        <v>25</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15.75">
+      <c r="A30" s="10">
+        <v>26</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="12">
+        <v>12287955</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="9">
+        <v>800</v>
+      </c>
+      <c r="F30" s="9">
+        <v>26</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="32">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="32">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" s="32">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" s="32">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31" s="32">
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31" s="32">
+        <v>11</v>
+      </c>
+      <c r="L31">
+        <v>12</v>
+      </c>
+      <c r="M31" s="32">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>14</v>
+      </c>
+      <c r="O31" s="32">
+        <v>15</v>
+      </c>
+      <c r="P31">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="32">
+        <v>17</v>
+      </c>
+      <c r="R31">
+        <v>18</v>
+      </c>
+      <c r="S31" s="32">
+        <v>19</v>
+      </c>
+      <c r="T31">
+        <v>20</v>
+      </c>
+      <c r="U31" s="32">
+        <v>21</v>
+      </c>
+      <c r="V31">
+        <v>22</v>
+      </c>
+      <c r="W31" s="32">
+        <v>23</v>
+      </c>
+      <c r="X31">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2619,29 +2870,346 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+    <row r="1" spans="1:34">
+      <c r="A1" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27">
+        <v>2</v>
+      </c>
+      <c r="E2" s="27">
+        <v>3</v>
+      </c>
+      <c r="F2" s="27">
+        <v>4</v>
+      </c>
+      <c r="G2" s="27">
+        <v>5</v>
+      </c>
+      <c r="H2" s="27">
+        <v>6</v>
+      </c>
+      <c r="I2" s="27">
+        <v>7</v>
+      </c>
+      <c r="J2" s="27">
+        <v>8</v>
+      </c>
+      <c r="K2" s="27">
+        <v>9</v>
+      </c>
+      <c r="L2" s="27">
+        <v>10</v>
+      </c>
+      <c r="M2" s="27">
+        <v>11</v>
+      </c>
+      <c r="N2" s="27">
+        <v>12</v>
+      </c>
+      <c r="O2" s="27">
+        <v>13</v>
+      </c>
+      <c r="P2" s="27">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>15</v>
+      </c>
+      <c r="R2" s="27">
+        <v>16</v>
+      </c>
+      <c r="S2" s="27">
+        <v>17</v>
+      </c>
+      <c r="T2" s="27">
+        <v>18</v>
+      </c>
+      <c r="U2" s="27">
+        <v>19</v>
+      </c>
+      <c r="V2" s="27">
+        <v>20</v>
+      </c>
+      <c r="W2" s="27">
+        <v>21</v>
+      </c>
+      <c r="X2" s="27">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="27">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="27">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="27">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB4" s="27" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:K1"/>
+  <mergeCells count="18">
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
